--- a/setlist/setlist.xlsx
+++ b/setlist/setlist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysaya\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E2370A8-2624-47B1-BB41-47E51AA8EB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B883C52-D3CD-4DD6-A188-D0C3C7C0AEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="127">
   <si>
     <t>40th Year Anniversary</t>
   </si>
@@ -403,9 +403,6 @@
   </si>
   <si>
     <t>#130 - Kuv Tsis Txajmuag Qhia Yexus Zaj</t>
-  </si>
-  <si>
-    <t>Faith Pleases God</t>
   </si>
   <si>
     <t>#57 - Kuv Tus Kwvluag Yog Tswv Yexus</t>
@@ -1104,8 +1101,8 @@
   <dimension ref="A1:E128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D128" sqref="D128"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,7 +1714,7 @@
         <v>45858</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>119</v>
@@ -1870,7 +1867,7 @@
         <v>45837</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>119</v>
@@ -2068,7 +2065,7 @@
         <v>45809</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>119</v>
@@ -3221,42 +3218,44 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
-        <v>45939</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>82</v>
+        <v>45963</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <v>45939</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C127" s="2"/>
+        <v>45963</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="D127" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
-        <v>45939</v>
+        <v>45963</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>119</v>
@@ -3265,7 +3264,7 @@
         <v>68</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/setlist/setlist.xlsx
+++ b/setlist/setlist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysaya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysaya\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B883C52-D3CD-4DD6-A188-D0C3C7C0AEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D40A8A6-0F69-4E34-8488-069588DF0A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="167">
   <si>
     <t>40th Year Anniversary</t>
   </si>
@@ -406,12 +406,135 @@
   </si>
   <si>
     <t>#57 - Kuv Tus Kwvluag Yog Tswv Yexus</t>
+  </si>
+  <si>
+    <t>#104</t>
+  </si>
+  <si>
+    <t>#154</t>
+  </si>
+  <si>
+    <t>#183</t>
+  </si>
+  <si>
+    <t>Here I am to Worship</t>
+  </si>
+  <si>
+    <t>Haleluyas Qhuas Vajtswv</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#48</t>
+  </si>
+  <si>
+    <t>#204</t>
+  </si>
+  <si>
+    <t>#255</t>
+  </si>
+  <si>
+    <t>#283 - Vajtswv, Ua Koj tsaug</t>
+  </si>
+  <si>
+    <t>#290 - Yexus Hlub Kuv</t>
+  </si>
+  <si>
+    <t>#213 -Kuv Lub Txim _x000B_Yexus Them Tag</t>
+  </si>
+  <si>
+    <t>#271 - Vajtswv Koj Foom Koob_x000B_Hmoov Ntau</t>
+  </si>
+  <si>
+    <t>#248 - Peb Cov Uas Ntseeg Vajtswv</t>
+  </si>
+  <si>
+    <t>#247 - Tus Tswv Yexus Emanues</t>
+  </si>
+  <si>
+    <t>#266 - Peb Ua Koj Tsaug, Vajtswv</t>
+  </si>
+  <si>
+    <t>#249 - Cov Tub txib Qaum Ntuj Hu Nkauj</t>
+  </si>
+  <si>
+    <t>#252 - Hmo Muaj Hmoov Zoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #256 - Cia Li Mus Qhia Pem Yajsab </t>
+  </si>
+  <si>
+    <t>#251 - Ntiajteb Zoo Siab, Tus Tswv Nqis Los</t>
+  </si>
+  <si>
+    <t>#253 - Hmo Zoo Kawg Nkaus</t>
+  </si>
+  <si>
+    <t>#8 - Vajtswv_x000B_Koj Muaj Hwjchim</t>
+  </si>
+  <si>
+    <t>#21 - Vajstwv Koj Yeej, Hlub Peb Kawg</t>
+  </si>
+  <si>
+    <t>Yexus Tibleeg</t>
+  </si>
+  <si>
+    <t>#29 - Kuv Muab Kuv Lub Cev</t>
+  </si>
+  <si>
+    <t>#9 - Los, Nov Yog Lub Caij Peb Pehawm</t>
+  </si>
+  <si>
+    <t>#213 - Kuv Lub Txim _x000B_Yexus Them Tag</t>
+  </si>
+  <si>
+    <t>#55 - Tswv Yexus Lub Npe Muaj Hwjchim</t>
+  </si>
+  <si>
+    <t>#40 - Yexus Hlub Kuv</t>
+  </si>
+  <si>
+    <t>#5 - Vajtswv, Peb Los Qhuas Koj</t>
+  </si>
+  <si>
+    <t>#12 - Kuv Lub Siab Qhuas Tus Tswv</t>
+  </si>
+  <si>
+    <t>#182 - Saum Ceebtsheej, Nrog Vajtswv Nyob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#6 - Vajtswv, Vajtswv, Vajtswv </t>
+  </si>
+  <si>
+    <t>#99 - Cov Uas Tseeg Tswv Yexus Muaj Chaw Nyob</t>
+  </si>
+  <si>
+    <t>#30 - Be Thou My Vision</t>
+  </si>
+  <si>
+    <t>#57 - Kuv Tus Kwvluag</t>
+  </si>
+  <si>
+    <t>#47 - Kuv Zoo Siab Kuv Ntseeg Tswv Yexus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#149 - Thov Caw Kwvtij Hmoob Sawvdaws </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#151 - Nimno Kuv Los Ntseeg Yexus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#95 - Kuv Twb Xaiv Tag Lawm </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -521,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -538,6 +661,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="6" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -819,10 +943,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}" name="Table1" displayName="Table1" ref="A1:E128" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:E128" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E122">
-    <sortCondition descending="1" ref="A1:A122"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}" name="Table1" displayName="Table1" ref="A1:E170" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:E170" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E128">
+    <sortCondition ref="A1:A128"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2CA5B64A-445D-4399-935B-81E8A6462D93}" name="Date" dataDxfId="6"/>
@@ -1098,16 +1222,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:E170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B132" sqref="B132"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" bestFit="1" customWidth="1"/>
@@ -1134,27 +1258,27 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>45934</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>116</v>
+        <v>45662</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>45934</v>
+        <v>45662</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>123</v>
@@ -1163,175 +1287,185 @@
         <v>68</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>45934</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4434612</v>
+        <v>45662</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>45934</v>
+        <v>45669</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2">
-        <v>6016351</v>
+        <v>14181</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>45928</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="2">
-        <v>6016351</v>
+        <v>45669</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>45928</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="2">
-        <v>14181</v>
+        <v>45669</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>45928</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>65</v>
+        <v>45676</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>45921</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>45676</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2">
+        <v>14181</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>45921</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>45676</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>45921</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>45683</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>45921</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>45683</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>45914</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>45683</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="D13" s="2" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>45914</v>
+        <v>45690</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>119</v>
@@ -1340,126 +1474,134 @@
         <v>68</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>45914</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>45690</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="D15" s="2" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>45907</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>119</v>
+        <v>45690</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="2">
+        <v>7116364</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>45907</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="2">
-        <v>6167640</v>
+        <v>45697</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>45907</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>48</v>
+        <v>45697</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>45900</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="2">
-        <v>14181</v>
+        <v>45697</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>45900</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="2">
-        <v>14181</v>
+        <v>45704</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>45900</v>
+        <v>45704</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C21" s="2">
-        <v>7116364</v>
+        <v>14181</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>45893</v>
+        <v>45704</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>123</v>
@@ -1468,15 +1610,15 @@
         <v>68</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>45893</v>
+        <v>45711</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>123</v>
@@ -1485,15 +1627,15 @@
         <v>68</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>45893</v>
+        <v>45711</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>123</v>
@@ -1502,32 +1644,32 @@
         <v>68</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>45886</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="2">
-        <v>14181</v>
+        <v>45711</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>45886</v>
+        <v>45718</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>123</v>
@@ -1536,15 +1678,15 @@
         <v>68</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>45886</v>
+        <v>45718</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>123</v>
@@ -1553,15 +1695,15 @@
         <v>68</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>45872</v>
+        <v>45718</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>123</v>
@@ -1570,15 +1712,15 @@
         <v>68</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>45872</v>
+        <v>45725</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>123</v>
@@ -1587,15 +1729,15 @@
         <v>68</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>45872</v>
+        <v>45725</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>123</v>
@@ -1604,32 +1746,32 @@
         <v>68</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>45865</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="2">
-        <v>14181</v>
+        <v>45725</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>45865</v>
+        <v>45732</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>123</v>
@@ -1638,49 +1780,49 @@
         <v>68</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>45865</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>123</v>
+        <v>45732</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="2">
+        <v>14181</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>45865</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>3</v>
+        <v>45732</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>45858</v>
+        <v>45739</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>123</v>
@@ -1689,15 +1831,15 @@
         <v>68</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>45858</v>
+        <v>45739</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>123</v>
@@ -1706,15 +1848,15 @@
         <v>68</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>45858</v>
+        <v>45739</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>119</v>
@@ -1723,83 +1865,83 @@
         <v>68</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>45851</v>
+        <v>45746</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C38" s="2">
-        <v>3608102</v>
+        <v>14181</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>45851</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>98</v>
+        <v>45746</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>45851</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>123</v>
+        <v>45746</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="2">
+        <v>14181</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>45844</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="2">
-        <v>14181</v>
+        <v>45753</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>45844</v>
+        <v>45753</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>123</v>
@@ -1808,15 +1950,15 @@
         <v>68</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>45844</v>
+        <v>45753</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>123</v>
@@ -1825,15 +1967,15 @@
         <v>68</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>45837</v>
+        <v>45753</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>123</v>
@@ -1842,15 +1984,15 @@
         <v>68</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>45837</v>
+        <v>45760</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>123</v>
@@ -1859,94 +2001,100 @@
         <v>68</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>45837</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>126</v>
+        <v>45760</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>45830</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>45760</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="D47" s="2" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>45830</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>45767</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="D48" s="2" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>45830</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>45767</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="D49" s="2" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>45823</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>123</v>
+        <v>45774</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="2">
+        <v>14181</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>45823</v>
+        <v>45774</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>123</v>
@@ -1955,15 +2103,15 @@
         <v>68</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>45823</v>
+        <v>45774</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>123</v>
@@ -1972,32 +2120,32 @@
         <v>68</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>45816</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>123</v>
+        <v>45781</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="2">
+        <v>14181</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>45816</v>
+        <v>45781</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>123</v>
@@ -2006,15 +2154,15 @@
         <v>68</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>45816</v>
+        <v>45781</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>123</v>
@@ -2023,83 +2171,83 @@
         <v>68</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>45809</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>123</v>
+        <v>45788</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="2">
+        <v>14181</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>45809</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>123</v>
+        <v>45788</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="2">
+        <v>14181</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>45809</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>126</v>
+        <v>45788</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>45802</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59" s="2">
-        <v>14181</v>
+        <v>45795</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>45802</v>
+        <v>45795</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>123</v>
@@ -2108,35 +2256,35 @@
         <v>68</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>45802</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>123</v>
+        <v>45795</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="2">
+        <v>7116364</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>45802</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>119</v>
+      <c r="B62" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="2">
+        <v>14181</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>68</v>
@@ -2147,27 +2295,27 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>45795</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>108</v>
+        <v>45802</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>45795</v>
+        <v>45802</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>123</v>
@@ -2176,100 +2324,100 @@
         <v>68</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>45795</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C65" s="2">
-        <v>7116364</v>
+        <v>45802</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>45788</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C66" s="2">
-        <v>14181</v>
+        <v>45809</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>45788</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C67" s="2">
-        <v>14181</v>
+        <v>45809</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>45788</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>110</v>
+        <v>45809</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>45781</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C69" s="2">
-        <v>14181</v>
+        <v>45816</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>45781</v>
+        <v>45816</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>123</v>
@@ -2278,15 +2426,15 @@
         <v>68</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>45781</v>
+        <v>45816</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>123</v>
@@ -2295,32 +2443,32 @@
         <v>68</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>45774</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C72" s="2">
-        <v>14181</v>
+        <v>45823</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>45774</v>
+        <v>45823</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>123</v>
@@ -2329,15 +2477,15 @@
         <v>68</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>45774</v>
+        <v>45823</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>123</v>
@@ -2346,66 +2494,60 @@
         <v>68</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>45767</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>123</v>
-      </c>
+        <v>45830</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>45767</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>123</v>
-      </c>
+        <v>45830</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>45760</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>123</v>
-      </c>
+        <v>45830</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>45760</v>
+        <v>45837</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>123</v>
@@ -2414,15 +2556,15 @@
         <v>68</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>45760</v>
+        <v>45837</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>123</v>
@@ -2431,15 +2573,15 @@
         <v>68</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>45753</v>
+        <v>45837</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>119</v>
@@ -2448,32 +2590,32 @@
         <v>68</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>45753</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>123</v>
+        <v>45844</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C81" s="2">
+        <v>14181</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>45753</v>
+        <v>45844</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>123</v>
@@ -2482,15 +2624,15 @@
         <v>68</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>45753</v>
+        <v>45844</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>123</v>
@@ -2499,66 +2641,66 @@
         <v>68</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>45746</v>
+        <v>45851</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C84" s="2">
-        <v>14181</v>
+        <v>3608102</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>45746</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>69</v>
+        <v>45851</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>45746</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C86" s="2">
-        <v>14181</v>
+        <v>45851</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>45739</v>
+        <v>45858</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>123</v>
@@ -2567,15 +2709,15 @@
         <v>68</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>45739</v>
+        <v>45858</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>123</v>
@@ -2584,15 +2726,15 @@
         <v>68</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>45739</v>
+        <v>45858</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>119</v>
@@ -2601,49 +2743,49 @@
         <v>68</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>45732</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>123</v>
+        <v>45865</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C90" s="2">
+        <v>14181</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>45732</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C91" s="2">
-        <v>14181</v>
+        <v>45865</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>45732</v>
+        <v>45865</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>123</v>
@@ -2652,32 +2794,32 @@
         <v>68</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>45725</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>76</v>
+        <v>45865</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>45725</v>
+        <v>45872</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>123</v>
@@ -2686,15 +2828,15 @@
         <v>68</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>45725</v>
+        <v>45872</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>123</v>
@@ -2703,15 +2845,15 @@
         <v>68</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>45718</v>
+        <v>45872</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>123</v>
@@ -2720,32 +2862,32 @@
         <v>68</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>45718</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>123</v>
+        <v>45886</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C97" s="2">
+        <v>14181</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>45718</v>
+        <v>45886</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>123</v>
@@ -2754,15 +2896,15 @@
         <v>68</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>45711</v>
+        <v>45886</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>123</v>
@@ -2771,15 +2913,15 @@
         <v>68</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>45711</v>
+        <v>45893</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>123</v>
@@ -2788,15 +2930,15 @@
         <v>68</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>45711</v>
+        <v>45893</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>123</v>
@@ -2805,15 +2947,15 @@
         <v>68</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>45704</v>
+        <v>45893</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>123</v>
@@ -2822,12 +2964,12 @@
         <v>68</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>45704</v>
+        <v>45900</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>56</v>
@@ -2839,83 +2981,79 @@
         <v>68</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>45704</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>123</v>
+        <v>45900</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C104" s="2">
+        <v>14181</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>45697</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>123</v>
+        <v>45900</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C105" s="2">
+        <v>7116364</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>45697</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>86</v>
+        <v>45907</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="E106" s="2"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>45697</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>123</v>
+        <v>45907</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C107" s="2">
+        <v>6167640</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="E107" s="2"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>45690</v>
+        <v>45907</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>119</v>
@@ -2923,149 +3061,135 @@
       <c r="D108" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="E108" s="2"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>45690</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>45914</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C109" s="2"/>
       <c r="D109" s="2" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>45690</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C110" s="2">
-        <v>7116364</v>
+        <v>45914</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>45683</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>123</v>
-      </c>
+        <v>45914</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C111" s="2"/>
       <c r="D111" s="2" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>45683</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>45921</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C112" s="2"/>
       <c r="D112" s="2" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>45683</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>123</v>
-      </c>
+        <v>45921</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C113" s="2"/>
       <c r="D113" s="2" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>45676</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>123</v>
-      </c>
+        <v>45921</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C114" s="2"/>
       <c r="D114" s="2" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>45676</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C115" s="2">
-        <v>14181</v>
-      </c>
+        <v>45921</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C115" s="2"/>
       <c r="D115" s="2" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>45676</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>123</v>
+        <v>45928</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C116" s="2">
+        <v>6016351</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>45669</v>
+        <v>45928</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>56</v>
@@ -3077,92 +3201,92 @@
         <v>68</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>45669</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>57</v>
+        <v>45928</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>45669</v>
+        <v>45934</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <v>45662</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D120" s="6" t="s">
+        <v>45934</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>45662</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>123</v>
+        <v>45934</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="2">
+        <v>4434612</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
-        <v>45662</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>123</v>
+        <v>45934</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="2">
+        <v>6016351</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3266,6 +3390,552 @@
       <c r="E128" s="2" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>45970</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>45970</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>45970</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>45970</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>45977</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>45977</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>45977</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>45984</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>45984</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>45984</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>45991</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>45991</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>45991</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>45998</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>45998</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>45998</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>46005</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>46005</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>46005</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>46012</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>46012</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>46012</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E150" s="2"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>46026</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E151" s="2"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>46026</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E152" s="2"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>46026</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E153" s="2"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>46026</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E154" s="2"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>46040</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="2"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>46040</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E156" s="2"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>46040</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E157" s="2"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>46040</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E158" s="2"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>46047</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E159" s="2"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>46047</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E160" s="2"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>46047</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E161" s="2"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>46047</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E162" s="2"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>46054</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E163" s="2"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>46054</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E164" s="2"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>46054</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E165" s="2"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>46054</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E166" s="2"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>46061</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E167" s="2"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>46061</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E168" s="2"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>46061</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E169" s="2"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>46061</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E170" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">

--- a/setlist/setlist.xlsx
+++ b/setlist/setlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysaya\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D40A8A6-0F69-4E34-8488-069588DF0A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAC7B5F-96DB-4A9F-873A-58400B7B2840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="171">
   <si>
     <t>40th Year Anniversary</t>
   </si>
@@ -426,9 +426,6 @@
     <t>#4</t>
   </si>
   <si>
-    <t>#48</t>
-  </si>
-  <si>
     <t>#204</t>
   </si>
   <si>
@@ -526,6 +523,21 @@
   </si>
   <si>
     <t xml:space="preserve">#95 - Kuv Twb Xaiv Tag Lawm </t>
+  </si>
+  <si>
+    <t>Jesus, The Perfect Lover</t>
+  </si>
+  <si>
+    <t>Worshipers and Murderers</t>
+  </si>
+  <si>
+    <t>Matthew 2:1-23</t>
+  </si>
+  <si>
+    <t>God With Us</t>
+  </si>
+  <si>
+    <t>Jesus Saves Sinners</t>
   </si>
 </sst>
 </file>
@@ -943,8 +955,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}" name="Table1" displayName="Table1" ref="A1:E170" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:E170" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}" name="Table1" displayName="Table1" ref="A1:E173" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:E173" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E128">
     <sortCondition ref="A1:A128"/>
   </sortState>
@@ -1222,11 +1234,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E170"/>
+  <dimension ref="A1:E173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C170" sqref="C170"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E154" sqref="E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3448,7 +3460,7 @@
         <v>45977</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2" t="s">
@@ -3461,7 +3473,7 @@
         <v>45977</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2" t="s">
@@ -3474,7 +3486,7 @@
         <v>45977</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2" t="s">
@@ -3513,7 +3525,7 @@
         <v>45984</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2" t="s">
@@ -3538,10 +3550,12 @@
       <c r="A140" s="3">
         <v>45991</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C140" s="2"/>
+      <c r="B140" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="D140" s="2" t="s">
         <v>68</v>
       </c>
@@ -3552,7 +3566,7 @@
         <v>45991</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2" t="s">
@@ -3565,7 +3579,7 @@
         <v>45998</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2" t="s">
@@ -3578,7 +3592,7 @@
         <v>45998</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2" t="s">
@@ -3591,7 +3605,7 @@
         <v>45998</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2" t="s">
@@ -3604,7 +3618,7 @@
         <v>46005</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2" t="s">
@@ -3617,7 +3631,7 @@
         <v>46005</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2" t="s">
@@ -3630,7 +3644,7 @@
         <v>46005</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2" t="s">
@@ -3643,7 +3657,7 @@
         <v>46012</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2" t="s">
@@ -3656,7 +3670,7 @@
         <v>46012</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2" t="s">
@@ -3669,7 +3683,7 @@
         <v>46012</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2" t="s">
@@ -3682,7 +3696,7 @@
         <v>46026</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2" t="s">
@@ -3695,7 +3709,7 @@
         <v>46026</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2" t="s">
@@ -3708,7 +3722,7 @@
         <v>46026</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2" t="s">
@@ -3721,7 +3735,7 @@
         <v>46026</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2" t="s">
@@ -3734,52 +3748,60 @@
         <v>46040</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E155" s="2"/>
+      <c r="E155" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>46040</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E156" s="2"/>
+      <c r="E156" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>46040</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E157" s="2"/>
+      <c r="E157" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>46040</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E158" s="2"/>
+      <c r="E158" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
@@ -3792,150 +3814,221 @@
       <c r="D159" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E159" s="2"/>
+      <c r="E159" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>46047</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E160" s="2"/>
+      <c r="E160" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>46047</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E161" s="2"/>
+      <c r="E161" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>46047</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E162" s="2"/>
+      <c r="E162" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>46054</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E163" s="2"/>
+      <c r="E163" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>46054</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E164" s="2"/>
+      <c r="E164" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>46054</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E165" s="2"/>
+      <c r="E165" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>46054</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E166" s="2"/>
+      <c r="E166" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>46061</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E167" s="2"/>
+      <c r="E167" s="2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>46061</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E168" s="2"/>
+      <c r="E168" s="2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>46061</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E169" s="2"/>
+      <c r="E169" s="2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>46061</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E170" s="2"/>
+      <c r="E170" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>46068</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>46068</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>46068</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
